--- a/biology/Zoologie/Crotalus_stephensi/Crotalus_stephensi.xlsx
+++ b/biology/Zoologie/Crotalus_stephensi/Crotalus_stephensi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalus stephensi est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalus stephensi est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre dans le sud-ouest du Nevada et dans le centre-est de la Californie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre dans le sud-ouest du Nevada et dans le centre-est de la Californie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Crotalus stephensi[2], un jeune mâle adulte, mesure 591 mm[3] dont 48 mm pour la queue. C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Crotalus stephensi, un jeune mâle adulte, mesure 591 mm dont 48 mm pour la queue. C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur de Frank Stephens, conservateur émérite de la San Diego Society of Natural History[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur de Frank Stephens, conservateur émérite de la San Diego Society of Natural History.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Klauber, 1930 : New and renamed subspecies of Crotalus confluentus Say, with remarks on related species. Transactions of the San Diego Society of Natural History, vol. 6, no 3, p. 95-144 (texte intégral).</t>
         </is>
